--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149519.9569658412</v>
+        <v>-155382.2770010209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11760078.18516371</v>
+        <v>11758898.22638287</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>391.418005238421</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>24.24561587590011</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>9.110409776861122</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615236</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>146.8340739597078</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>153.1210931240059</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.9825222258147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>29.59241799178229</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968124</v>
+        <v>50.64353720722665</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,13 +1054,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7540220763312107</v>
+        <v>40.39388171187444</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>307.6930714372876</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1142,7 +1142,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>311.8308687980559</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>22.96189723698673</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>222.6014441950585</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>76.11243740435577</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>49.28180985414851</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>73.81096190767585</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>12.37994546755657</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.284361322070644</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>191.7797789436876</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>23.20008963310304</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>74.69798496361176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059322</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.995969188804</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390864</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092613</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380524</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357251</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596464</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253669</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708617</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369185</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559388</v>
       </c>
     </row>
     <row r="26">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1377.797514946954</v>
+        <v>1650.177071018759</v>
       </c>
       <c r="C2" t="n">
-        <v>984.6220134498849</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D2" t="n">
-        <v>599.1808846665526</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032205</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="N2" t="n">
-        <v>1747.535792669667</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O2" t="n">
-        <v>1747.535792669667</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.78296973775</v>
+        <v>2050.671816730156</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.78296973775</v>
+        <v>2050.671816730156</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.78296973775</v>
+        <v>2050.671816730156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.292260658351</v>
+        <v>2050.671816730156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021451</v>
+        <v>556.1927859813188</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622374</v>
+        <v>405.538555541411</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837177</v>
+        <v>275.4495881628914</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946054</v>
+        <v>139.0030972737791</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777372</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777372</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202784</v>
+        <v>1151.786993484068</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>1665.389672093756</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021353</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675992</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431065</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.495659394755</v>
+        <v>379.9624185909037</v>
       </c>
       <c r="C4" t="n">
-        <v>43.495659394755</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="D4" t="n">
-        <v>43.495659394755</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="E4" t="n">
-        <v>43.495659394755</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F4" t="n">
-        <v>43.495659394755</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>560.9063836805942</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>560.9063836805942</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>277.5759816117719</v>
+        <v>788.2824984655617</v>
       </c>
       <c r="X4" t="n">
-        <v>43.495659394755</v>
+        <v>788.2824984655617</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.495659394755</v>
+        <v>565.1704372822051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>607.8495662439052</v>
+        <v>1648.720191861811</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827818</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.74991746528</v>
+        <v>1562.028895694245</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>2002.068496586573</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U5" t="n">
-        <v>2106.898724718441</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="V5" t="n">
-        <v>1764.79191542196</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="W5" t="n">
-        <v>1393.792880390247</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="X5" t="n">
-        <v>1004.340275323304</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="Y5" t="n">
-        <v>607.8495662439052</v>
+        <v>1819.409608251523</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817855</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591879</v>
+        <v>1561.559659207235</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.8927025670486</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="C7" t="n">
-        <v>354.6875846330378</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0544715355525</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="E7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="F7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="G7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.1810434753668</v>
+        <v>778.2473792114029</v>
       </c>
       <c r="T7" t="n">
-        <v>944.1810434753668</v>
+        <v>542.5283273796369</v>
       </c>
       <c r="U7" t="n">
-        <v>944.1810434753668</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="V7" t="n">
-        <v>944.1810434753668</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="W7" t="n">
-        <v>944.1810434753668</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="X7" t="n">
-        <v>710.1007212583498</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.1007212583498</v>
+        <v>257.0895356215378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1956.65655633099</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="C8" t="n">
-        <v>1563.48105483392</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.039926050588</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>775.4564011671323</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
         <v>460.4757256135405</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.65655633099</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1956.65655633099</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1956.65655633099</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.8850758683575</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8850758683575</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8850758683575</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8850758683575</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8850758683575</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8850758683575</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>100.8850758683575</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>521.0939651942731</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>521.0939651942731</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>521.0939651942731</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>521.0939651942731</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>521.0939651942731</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>521.0939651942731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1434.218555009979</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="C11" t="n">
-        <v>1112.839328659103</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>799.1944750219649</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>799.1944750219649</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>655.7723833572336</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3056.176779292495</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3056.176779292495</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2872.220324873287</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2601.909790723</v>
       </c>
       <c r="W11" t="n">
-        <v>2405.267789429136</v>
+        <v>2302.707030837481</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.611459508387</v>
+        <v>1985.050700916732</v>
       </c>
       <c r="Y11" t="n">
-        <v>1762.917025575182</v>
+        <v>1660.356266983527</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M12" t="n">
         <v>802.5350401618138</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499.0613902693673</v>
+        <v>487.5760960984582</v>
       </c>
       <c r="C13" t="n">
-        <v>400.6525474815504</v>
+        <v>389.1672533106411</v>
       </c>
       <c r="D13" t="n">
-        <v>316.8157095302591</v>
+        <v>389.1672533106411</v>
       </c>
       <c r="E13" t="n">
-        <v>242.2591823507883</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1484.227646392734</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1484.227646392734</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1320.304869707162</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1320.304869707162</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628189</v>
+        <v>1126.12179967418</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401904</v>
+        <v>914.5876727515513</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693673</v>
+        <v>752.3036256807283</v>
       </c>
       <c r="Y13" t="n">
-        <v>499.0613902693673</v>
+        <v>600.9878396435655</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.941523761099</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2675.573482021633</v>
+        <v>2806.753625320257</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.917152100884</v>
+        <v>2489.097295399508</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.222718167679</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.0098426317709</v>
+        <v>410.9088655939305</v>
       </c>
       <c r="C16" t="n">
-        <v>379.0098426317709</v>
+        <v>387.4744316210994</v>
       </c>
       <c r="D16" t="n">
-        <v>379.0098426317709</v>
+        <v>303.637593669808</v>
       </c>
       <c r="E16" t="n">
-        <v>379.0098426317709</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
@@ -5443,7 +5443,7 @@
         <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
         <v>999.6269248138162</v>
@@ -5458,7 +5458,7 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915621</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689336</v>
+        <v>724.5086987019163</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689336</v>
+        <v>562.2246516310933</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.0098426317709</v>
+        <v>410.9088655939305</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5555,10 +5555,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
         <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,10 +5789,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885602</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369578</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218809</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634918</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072696</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918821</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161914</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.955836619424</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.30217123301</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984015</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974532</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388008</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662627</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
         <v>1739.339056658946</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958361</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985344</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286442</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988156</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026472</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057092</v>
+        <v>601.380725810811</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786172</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423634</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315962</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076166</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>143.5810516071577</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>225.4160927170996</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>501.1958531658821</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736102</v>
+        <v>799.1395520791289</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831238</v>
+        <v>982.329186110338</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600016</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376594</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,16 +7154,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7418,10 +7418,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>806.619390679759</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>243.9258194182784</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>395.1515653491421</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>332.8242389620084</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886042</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>269.8669267356332</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>586.5663746337937</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998654</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>505.8103775089853</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>290.5726198043367</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5244230630205</v>
+        <v>569.9919810238545</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,13 +8769,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>744.8605591506555</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11139,16 +11139,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.0244253199895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>265.5347442862343</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.48829725947947</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>9.11394971698175</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>39.20372161146028</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>287.9263709645929</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>129.6677106501854</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>74.22466472683567</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.976378080813115</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1031599.600452654</v>
+        <v>1030998.052838894</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1031599.600452654</v>
+        <v>1030998.052838894</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918219.1171609561</v>
+        <v>918219.1171609564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918219.1171609563</v>
+        <v>918219.1171609564</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>252465.0493306995</v>
       </c>
       <c r="C2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="D2" t="n">
         <v>252465.0493306995</v>
@@ -26323,37 +26323,37 @@
         <v>223102.6327941606</v>
       </c>
       <c r="F2" t="n">
-        <v>223102.6327941605</v>
+        <v>223102.6327941606</v>
       </c>
       <c r="G2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306993</v>
       </c>
       <c r="H2" t="n">
         <v>252465.0493306991</v>
       </c>
       <c r="I2" t="n">
-        <v>252465.0493306992</v>
+        <v>252465.0493306993</v>
       </c>
       <c r="J2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="K2" t="n">
         <v>252465.0493306995</v>
       </c>
       <c r="L2" t="n">
-        <v>252465.0493306998</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="M2" t="n">
-        <v>252465.0493306992</v>
+        <v>252465.0493306991</v>
       </c>
       <c r="N2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306994</v>
       </c>
       <c r="O2" t="n">
-        <v>252465.0493306992</v>
+        <v>252465.0493306989</v>
       </c>
       <c r="P2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306991</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.365803379124296e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728549</v>
+        <v>62456.24177539661</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962294</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996331</v>
       </c>
       <c r="H4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185369.7064553369</v>
+        <v>-181619.8082548024</v>
       </c>
       <c r="C6" t="n">
-        <v>-3164.758163480903</v>
+        <v>-7761.151220747095</v>
       </c>
       <c r="D6" t="n">
-        <v>-9180.559821254108</v>
+        <v>-16916.8490446457</v>
       </c>
       <c r="E6" t="n">
-        <v>-42099.02988777541</v>
+        <v>-42308.76143446509</v>
       </c>
       <c r="F6" t="n">
-        <v>70023.53158626902</v>
+        <v>69813.8000395795</v>
       </c>
       <c r="G6" t="n">
-        <v>-782.0435211354634</v>
+        <v>-782.0435211353397</v>
       </c>
       <c r="H6" t="n">
-        <v>46643.28201554633</v>
+        <v>46643.28201554623</v>
       </c>
       <c r="I6" t="n">
-        <v>46643.28201554633</v>
+        <v>46643.2820155464</v>
       </c>
       <c r="J6" t="n">
-        <v>-166398.635581739</v>
+        <v>-159882.3504271656</v>
       </c>
       <c r="K6" t="n">
-        <v>40403.51361276372</v>
+        <v>40403.51361276366</v>
       </c>
       <c r="L6" t="n">
-        <v>-14779.07532185715</v>
+        <v>-18827.91253232988</v>
       </c>
       <c r="M6" t="n">
-        <v>4442.452555923403</v>
+        <v>3390.757544735097</v>
       </c>
       <c r="N6" t="n">
-        <v>46643.28201554655</v>
+        <v>46643.28201554657</v>
       </c>
       <c r="O6" t="n">
-        <v>18875.58797277515</v>
+        <v>18875.58797277481</v>
       </c>
       <c r="P6" t="n">
-        <v>46643.28201554666</v>
+        <v>46643.28201554625</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095208</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660686</v>
+        <v>78.07030221924576</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407237</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.139684396199925</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>314.4401253276167</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>114.0770782788384</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925271</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,7 +27549,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>135.7503298808103</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>127.3760049241282</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>227.5072760284682</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>223.6027842779651</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626819</v>
+        <v>124.570436475854</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.0339009029449</v>
+        <v>160.3940412674017</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>81.5506750448111</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>100.8946252872661</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.8015838723062</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.76041711838965</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.71049010668767</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.71049010668801</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082797</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>30.2722376590126</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.2729119656675</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>81.10808140893477</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224748</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254375</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668811</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>128.2979821082773</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,22 +30648,22 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O46" t="n">
-        <v>5.636002634528467</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344375</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>94.80732808049427</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>244.8501181082169</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>240.4371169126965</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344375</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>177.1793678467443</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>436.8413230360664</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285894019</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>413.4232554596734</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>205.2005069501701</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>582.1523102088539</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>220.7505244816465</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>156.7975262446462</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526631</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634530932</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851016</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907923</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>659.4884462964889</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.788972616759</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>43.49509683160149</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791174</v>
+        <v>76.79385455031577</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875025</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529037</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184298</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37859,16 +37859,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>633.6373032706776</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,13 +37944,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>216.185811717645</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,10 +38184,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
